--- a/Technology/Hardware/KLA Corporation.xlsx
+++ b/Technology/Hardware/KLA Corporation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3341793E-D04A-4440-82C1-11912DE03534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF21AF8-150B-C248-86DA-F900E73EDBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1015,6 +1015,14 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1027,14 +1035,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2522,11 +2522,11 @@
     <v>Powered by Refinitiv</v>
     <v>429.46</v>
     <v>250.2</v>
-    <v>1.3728</v>
-    <v>-3.74</v>
-    <v>-9.9539999999999993E-3</v>
-    <v>0.33</v>
-    <v>8.8719999999999988E-4</v>
+    <v>1.3629</v>
+    <v>-4.93</v>
+    <v>-1.1503000000000001E-2</v>
+    <v>-0.74</v>
+    <v>-1.7469999999999999E-3</v>
     <v>USD</v>
     <v>KLA Corporation (KLA) is a supplier of process control and yield management solutions and services for the semiconductor and related electronics industries. The Company offers a portfolio of device manufacturing, inspection and metrology products and related service, software and other offerings support research and development (R&amp;D) and manufacturing of integrated circuits (IC), wafers and reticles. It also offers technologically advanced, yield-enhancing and process-enabling solutions to address various manufacturing stages of Printed Circuit Boards (PCB), Flat Panel Displays (FPD), Specialty Semiconductor Devices (SD) and other electronic components. Its segment includes Semiconductor Process Control; Specialty Semiconductor Process; PCB, Display and Component Inspection, and Other. The Semiconductor Process Control segment provides a portfolio of inspection, metrology and data analytics products as well as related service offerings.</v>
     <v>14000</v>
@@ -2534,25 +2534,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Technology Dr, MILPITAS, CA, 95035-7916 US</v>
-    <v>374.8</v>
+    <v>429.45</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45037.919546735939</v>
+    <v>45065.880324339843</v>
     <v>0</v>
-    <v>369.27</v>
-    <v>51510320000</v>
+    <v>422.1</v>
+    <v>58122941996</v>
     <v>KLA Corporation</v>
     <v>KLA Corporation</v>
-    <v>374.76</v>
-    <v>15.4472</v>
-    <v>375.71</v>
-    <v>371.97</v>
-    <v>372.3</v>
-    <v>138479800</v>
+    <v>429</v>
+    <v>17.476099999999999</v>
+    <v>428.57</v>
+    <v>423.64</v>
+    <v>422.9</v>
+    <v>137198900</v>
     <v>KLAC</v>
     <v>KLA Corporation (XNAS:KLAC)</v>
-    <v>918245</v>
-    <v>1084406</v>
+    <v>1064618</v>
+    <v>1025304</v>
     <v>1975</v>
   </rv>
   <rv s="2">
@@ -3140,10 +3140,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO100" sqref="AO100"/>
+      <selection pane="bottomRight" activeCell="AO21" sqref="AO21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5307,15 +5307,15 @@
       </c>
       <c r="AS16" s="30">
         <f>AT101/AL3</f>
-        <v>5.5917253833988125</v>
+        <v>6.3095614649035383</v>
       </c>
       <c r="AT16" s="30">
         <f>AT101/AL28</f>
-        <v>15.506716675592532</v>
+        <v>17.497386812659496</v>
       </c>
       <c r="AU16" s="31">
         <f>AT101/AL106</f>
-        <v>17.139358657235586</v>
+        <v>19.339618722678182</v>
       </c>
     </row>
     <row r="17" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -13235,10 +13235,10 @@
       <c r="AL83" s="1">
         <v>-567003000</v>
       </c>
-      <c r="AS83" s="58" t="s">
+      <c r="AS83" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="AT83" s="59"/>
+      <c r="AT83" s="63"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13355,10 +13355,10 @@
       <c r="AL84" s="1">
         <v>101632000</v>
       </c>
-      <c r="AS84" s="60" t="s">
+      <c r="AS84" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="AT84" s="61"/>
+      <c r="AT84" s="65"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14496,10 +14496,10 @@
       <c r="AL93" s="1">
         <v>-279662000</v>
       </c>
-      <c r="AS93" s="60" t="s">
+      <c r="AS93" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="AT93" s="61"/>
+      <c r="AT93" s="65"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14741,9 +14741,9 @@
       <c r="AS95" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="AT95" s="65" cm="1">
+      <c r="AT95" s="59" cm="1">
         <f t="array" ref="AT95">_FV(A1,"Beta")</f>
-        <v>1.3728</v>
+        <v>1.3629</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14988,7 +14988,7 @@
       </c>
       <c r="AT97" s="36">
         <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>0.10004904000000001</v>
+        <v>9.9622845000000015E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -15106,10 +15106,10 @@
       <c r="AL98" s="1">
         <v>-638528000</v>
       </c>
-      <c r="AS98" s="60" t="s">
+      <c r="AS98" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="AT98" s="61"/>
+      <c r="AT98" s="65"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15354,7 +15354,7 @@
       </c>
       <c r="AT100" s="34">
         <f>AT99/AT103</f>
-        <v>0.11622799323149115</v>
+        <v>0.10438509048646609</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15477,7 +15477,7 @@
       </c>
       <c r="AT101" s="50" cm="1">
         <f t="array" ref="AT101">_FV(A1,"Market cap",TRUE)</f>
-        <v>51510320000</v>
+        <v>58122941996</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15600,7 +15600,7 @@
       </c>
       <c r="AT102" s="34">
         <f>AT101/AT103</f>
-        <v>0.88377200676850887</v>
+        <v>0.89561490951353395</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15723,7 +15723,7 @@
       </c>
       <c r="AT103" s="38">
         <f>AT99+AT101</f>
-        <v>58284625000</v>
+        <v>64897246996</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -15841,10 +15841,10 @@
       <c r="AL104" s="11">
         <v>1584908000</v>
       </c>
-      <c r="AS104" s="60" t="s">
+      <c r="AS104" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="AT104" s="61"/>
+      <c r="AT104" s="65"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16006,7 +16006,7 @@
       </c>
       <c r="AT105" s="26">
         <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>9.1039701684991661E-2</v>
+        <v>9.1575990095644738E-2</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16200,7 +16200,7 @@
       <c r="AP107" s="40"/>
       <c r="AQ107" s="43">
         <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>71517766460.298996</v>
+        <v>70941670644.775223</v>
       </c>
       <c r="AR107" s="44" t="s">
         <v>148</v>
@@ -16231,7 +16231,7 @@
       </c>
       <c r="AQ108" s="43">
         <f>AQ107+AQ106</f>
-        <v>76125583008.801483</v>
+        <v>75549487193.27771</v>
       </c>
       <c r="AR108" s="44" t="s">
         <v>144</v>
@@ -16241,14 +16241,14 @@
       </c>
       <c r="AT108" s="48">
         <f>AT105</f>
-        <v>9.1039701684991661E-2</v>
+        <v>9.1575990095644738E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM109" s="62" t="s">
+      <c r="AM109" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="AN109" s="63"/>
+      <c r="AN109" s="61"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="AM110" s="49" t="s">
@@ -16256,7 +16256,7 @@
       </c>
       <c r="AN110" s="50">
         <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>61212839363.701622</v>
+        <v>60705585609.273148</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16283,7 +16283,7 @@
       </c>
       <c r="AN113" s="50">
         <f>AN110+AN111-AN112</f>
-        <v>57146542363.701622</v>
+        <v>56639288609.273148</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16301,16 +16301,16 @@
       </c>
       <c r="AN115" s="53">
         <f>AN113/AN114</f>
-        <v>391.91332158385319</v>
+        <v>388.43455461806354</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
       <c r="AM116" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="AN116" s="64" cm="1">
+      <c r="AN116" s="58" cm="1">
         <f t="array" ref="AN116">_FV(A1,"Price")</f>
-        <v>371.97</v>
+        <v>423.64</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16319,7 +16319,7 @@
       </c>
       <c r="AN117" s="55">
         <f>AN115/AN116-1</f>
-        <v>5.3615403349337676E-2</v>
+        <v>-8.3102269337023027E-2</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16328,7 +16328,7 @@
       </c>
       <c r="AN118" s="56" t="str">
         <f>IF(AN115&gt;AN116,"BUY","SELL")</f>
-        <v>BUY</v>
+        <v>SELL</v>
       </c>
     </row>
   </sheetData>

--- a/Technology/Hardware/KLA Corporation.xlsx
+++ b/Technology/Hardware/KLA Corporation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF21AF8-150B-C248-86DA-F900E73EDBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0563AE-DF8F-8949-89B8-CEA0B293F531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2520,13 +2520,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>429.46</v>
+    <v>482.2</v>
     <v>250.2</v>
-    <v>1.3629</v>
-    <v>-4.93</v>
-    <v>-1.1503000000000001E-2</v>
-    <v>-0.74</v>
-    <v>-1.7469999999999999E-3</v>
+    <v>1.35</v>
+    <v>10.95</v>
+    <v>2.3990999999999998E-2</v>
     <v>USD</v>
     <v>KLA Corporation (KLA) is a supplier of process control and yield management solutions and services for the semiconductor and related electronics industries. The Company offers a portfolio of device manufacturing, inspection and metrology products and related service, software and other offerings support research and development (R&amp;D) and manufacturing of integrated circuits (IC), wafers and reticles. It also offers technologically advanced, yield-enhancing and process-enabling solutions to address various manufacturing stages of Printed Circuit Boards (PCB), Flat Panel Displays (FPD), Specialty Semiconductor Devices (SD) and other electronic components. Its segment includes Semiconductor Process Control; Specialty Semiconductor Process; PCB, Display and Component Inspection, and Other. The Semiconductor Process Control segment provides a portfolio of inspection, metrology and data analytics products as well as related service offerings.</v>
     <v>14000</v>
@@ -2534,25 +2532,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Technology Dr, MILPITAS, CA, 95035-7916 US</v>
-    <v>429.45</v>
+    <v>467.89</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45065.880324339843</v>
+    <v>45099.998149560153</v>
     <v>0</v>
-    <v>422.1</v>
-    <v>58122941996</v>
+    <v>452.96010000000001</v>
+    <v>64124021882</v>
     <v>KLA Corporation</v>
     <v>KLA Corporation</v>
-    <v>429</v>
-    <v>17.476099999999999</v>
-    <v>428.57</v>
-    <v>423.64</v>
-    <v>422.9</v>
+    <v>453.05</v>
+    <v>19.058700000000002</v>
+    <v>456.43</v>
+    <v>467.38</v>
     <v>137198900</v>
     <v>KLAC</v>
     <v>KLA Corporation (XNAS:KLAC)</v>
-    <v>1064618</v>
-    <v>1025304</v>
+    <v>10</v>
+    <v>1164893</v>
     <v>1975</v>
   </rv>
   <rv s="2">
@@ -2584,8 +2581,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2606,7 +2601,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2623,7 +2617,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2634,16 +2628,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2709,19 +2700,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2766,9 +2751,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2776,9 +2758,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3140,10 +3119,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AH98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO21" sqref="AO21"/>
+      <selection pane="bottomRight" activeCell="AK121" sqref="AK121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5307,15 +5286,15 @@
       </c>
       <c r="AS16" s="30">
         <f>AT101/AL3</f>
-        <v>6.3095614649035383</v>
+        <v>6.9610113243948062</v>
       </c>
       <c r="AT16" s="30">
         <f>AT101/AL28</f>
-        <v>17.497386812659496</v>
+        <v>19.303957719999989</v>
       </c>
       <c r="AU16" s="31">
         <f>AT101/AL106</f>
-        <v>19.339618722678182</v>
+        <v>21.336396465407724</v>
       </c>
     </row>
     <row r="17" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -14743,7 +14722,7 @@
       </c>
       <c r="AT95" s="59" cm="1">
         <f t="array" ref="AT95">_FV(A1,"Beta")</f>
-        <v>1.3629</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14988,7 +14967,7 @@
       </c>
       <c r="AT97" s="36">
         <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>9.9622845000000015E-2</v>
+        <v>9.9067500000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -15354,7 +15333,7 @@
       </c>
       <c r="AT100" s="34">
         <f>AT99/AT103</f>
-        <v>0.10438509048646609</v>
+        <v>9.5549574974806525E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15477,7 +15456,7 @@
       </c>
       <c r="AT101" s="50" cm="1">
         <f t="array" ref="AT101">_FV(A1,"Market cap",TRUE)</f>
-        <v>58122941996</v>
+        <v>64124021882</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15600,7 +15579,7 @@
       </c>
       <c r="AT102" s="34">
         <f>AT101/AT103</f>
-        <v>0.89561490951353395</v>
+        <v>0.90445042502519346</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15723,7 +15702,7 @@
       </c>
       <c r="AT103" s="38">
         <f>AT99+AT101</f>
-        <v>64897246996</v>
+        <v>70898326882</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16006,7 +15985,7 @@
       </c>
       <c r="AT105" s="26">
         <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>9.1575990095644738E-2</v>
+        <v>9.1754821737202771E-2</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16200,7 +16179,7 @@
       <c r="AP107" s="40"/>
       <c r="AQ107" s="43">
         <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>70941670644.775223</v>
+        <v>70751622718.85585</v>
       </c>
       <c r="AR107" s="44" t="s">
         <v>148</v>
@@ -16231,7 +16210,7 @@
       </c>
       <c r="AQ108" s="43">
         <f>AQ107+AQ106</f>
-        <v>75549487193.27771</v>
+        <v>75359439267.358337</v>
       </c>
       <c r="AR108" s="44" t="s">
         <v>144</v>
@@ -16241,7 +16220,7 @@
       </c>
       <c r="AT108" s="48">
         <f>AT105</f>
-        <v>9.1575990095644738E-2</v>
+        <v>9.1754821737202771E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16256,7 +16235,7 @@
       </c>
       <c r="AN110" s="50">
         <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>60705585609.273148</v>
+        <v>60538254119.748436</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16283,7 +16262,7 @@
       </c>
       <c r="AN113" s="50">
         <f>AN110+AN111-AN112</f>
-        <v>56639288609.273148</v>
+        <v>56471957119.748436</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16301,7 +16280,7 @@
       </c>
       <c r="AN115" s="53">
         <f>AN113/AN114</f>
-        <v>388.43455461806354</v>
+        <v>387.2869884285322</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16310,7 +16289,7 @@
       </c>
       <c r="AN116" s="58" cm="1">
         <f t="array" ref="AN116">_FV(A1,"Price")</f>
-        <v>423.64</v>
+        <v>467.38</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16319,7 +16298,7 @@
       </c>
       <c r="AN117" s="55">
         <f>AN115/AN116-1</f>
-        <v>-8.3102269337023027E-2</v>
+        <v>-0.17136593686393897</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/KLA Corporation.xlsx
+++ b/Technology/Hardware/KLA Corporation.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0563AE-DF8F-8949-89B8-CEA0B293F531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F33603-31EB-F341-8460-2518991968C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -391,9 +391,6 @@
   </si>
   <si>
     <t>Income Tax Expense</t>
-  </si>
-  <si>
-    <t>FCF Growth YoY</t>
   </si>
   <si>
     <t>WACC</t>
@@ -510,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -551,16 +545,48 @@
   <si>
     <t>Buy/Sell</t>
   </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -729,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -835,22 +861,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -858,47 +875,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -940,99 +922,99 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1085,7 +1067,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>KLAC</a:t>
+              <a:t>KLA Corporation</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1123,10 +1105,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.3303473884804441E-2"/>
-          <c:y val="0.12346976175931582"/>
-          <c:w val="0.87026203677026548"/>
-          <c:h val="0.71802019249731841"/>
+          <c:x val="8.7283582089552239E-2"/>
+          <c:y val="0.14319546657974944"/>
+          <c:w val="0.85434162520729684"/>
+          <c:h val="0.65093601861858774"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1180,6 +1162,126 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AL$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$AL$3</c:f>
@@ -1302,7 +1404,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FC8A-A94C-9CEA-B955B1020FE2}"/>
+              <c16:uniqueId val="{00000000-0C71-4D4A-AB49-AE5D0DD85CD7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1311,11 +1413,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1353,129 +1455,249 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AL$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$AL$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AL$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>19800000</c:v>
+                  <c:v>9900000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16500000</c:v>
+                  <c:v>7500000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18500000</c:v>
+                  <c:v>8800000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24400000</c:v>
+                  <c:v>11700000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22700000</c:v>
+                  <c:v>9400000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-400000</c:v>
+                  <c:v>-10600000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2800000</c:v>
+                  <c:v>-13800000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18900000</c:v>
+                  <c:v>7000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51000000</c:v>
+                  <c:v>30200000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>99400000</c:v>
+                  <c:v>58600000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>205200000</c:v>
+                  <c:v>120900000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>226300000</c:v>
+                  <c:v>105400000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>245200000</c:v>
+                  <c:v>134100000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>98500000</c:v>
+                  <c:v>39200000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>416415000</c:v>
+                  <c:v>253798000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>261858000</c:v>
+                  <c:v>66683000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>357046000</c:v>
+                  <c:v>216166000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>251966000</c:v>
+                  <c:v>137191000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>407642000</c:v>
+                  <c:v>243701000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>694548000</c:v>
+                  <c:v>466695000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>451395000</c:v>
+                  <c:v>380452000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>787897000</c:v>
+                  <c:v>528098000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>686610000</c:v>
+                  <c:v>359083000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-411344000</c:v>
+                  <c:v>-523368000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>433046000</c:v>
+                  <c:v>212300000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1164394000</c:v>
+                  <c:v>794488000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1120424000</c:v>
+                  <c:v>756015000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>832331000</c:v>
+                  <c:v>543149000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>871345000</c:v>
+                  <c:v>582755000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>620676000</c:v>
+                  <c:v>366158000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1048011000</c:v>
+                  <c:v>704422000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1353558000</c:v>
+                  <c:v>926076000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1632991000</c:v>
+                  <c:v>802265000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1654659000</c:v>
+                  <c:v>1175617000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1826794000</c:v>
+                  <c:v>1216785000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2852056000</c:v>
+                  <c:v>2078292000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4012667000</c:v>
+                  <c:v>3321807000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FC8A-A94C-9CEA-B955B1020FE2}"/>
+              <c16:uniqueId val="{00000001-0C71-4D4A-AB49-AE5D0DD85CD7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1484,11 +1706,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1526,9 +1748,129 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AL$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AL$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$AL$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="37"/>
@@ -1648,7 +1990,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FC8A-A94C-9CEA-B955B1020FE2}"/>
+              <c16:uniqueId val="{00000002-0C71-4D4A-AB49-AE5D0DD85CD7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1662,11 +2004,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1915392991"/>
-        <c:axId val="1915394719"/>
+        <c:axId val="1336118816"/>
+        <c:axId val="1336120816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1915392991"/>
+        <c:axId val="1336118816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1694,7 +2036,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1706,7 +2048,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1915394719"/>
+        <c:crossAx val="1336120816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1714,7 +2056,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1915394719"/>
+        <c:axId val="1336120816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1763,7 +2105,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1915392991"/>
+        <c:crossAx val="1336118816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1777,16 +2119,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.34664385718192686"/>
-          <c:y val="0.9181466000317462"/>
-          <c:w val="0.30405888624500738"/>
-          <c:h val="5.0087975411137138E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2364,22 +2696,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>31749</xdr:colOff>
+      <xdr:colOff>15874</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>25399</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>1587500</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>15874</xdr:rowOff>
+      <xdr:colOff>1571624</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>206374</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A068CEC-F216-C751-FA02-A0584D862B64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1D11591-C44D-AC0D-3CF0-E00E8A6B1EBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2398,6 +2730,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.857E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2520,11 +2906,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>482.2</v>
+    <v>493.53</v>
     <v>250.2</v>
-    <v>1.35</v>
-    <v>10.95</v>
-    <v>2.3990999999999998E-2</v>
+    <v>1.3354999999999999</v>
+    <v>5.13</v>
+    <v>1.1128000000000001E-2</v>
+    <v>-1.49</v>
+    <v>-3.1969999999999998E-3</v>
     <v>USD</v>
     <v>KLA Corporation (KLA) is a supplier of process control and yield management solutions and services for the semiconductor and related electronics industries. The Company offers a portfolio of device manufacturing, inspection and metrology products and related service, software and other offerings support research and development (R&amp;D) and manufacturing of integrated circuits (IC), wafers and reticles. It also offers technologically advanced, yield-enhancing and process-enabling solutions to address various manufacturing stages of Printed Circuit Boards (PCB), Flat Panel Displays (FPD), Specialty Semiconductor Devices (SD) and other electronic components. Its segment includes Semiconductor Process Control; Specialty Semiconductor Process; PCB, Display and Component Inspection, and Other. The Semiconductor Process Control segment provides a portfolio of inspection, metrology and data analytics products as well as related service offerings.</v>
     <v>14000</v>
@@ -2532,24 +2920,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Technology Dr, MILPITAS, CA, 95035-7916 US</v>
-    <v>467.89</v>
+    <v>470.315</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45099.998149560153</v>
+    <v>45132.993722510939</v>
     <v>0</v>
-    <v>452.96010000000001</v>
-    <v>64124021882</v>
+    <v>463.05</v>
+    <v>63949779279</v>
     <v>KLA Corporation</v>
     <v>KLA Corporation</v>
-    <v>453.05</v>
-    <v>19.058700000000002</v>
-    <v>456.43</v>
-    <v>467.38</v>
+    <v>463.19</v>
+    <v>18.797699999999999</v>
+    <v>460.98</v>
+    <v>466.11</v>
+    <v>464.62</v>
     <v>137198900</v>
     <v>KLAC</v>
     <v>KLA Corporation (XNAS:KLAC)</v>
-    <v>10</v>
-    <v>1164893</v>
+    <v>788413</v>
+    <v>992967</v>
     <v>1975</v>
   </rv>
   <rv s="2">
@@ -2581,6 +2970,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2601,6 +2992,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2617,7 +3009,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2628,13 +3020,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2700,13 +3095,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2751,6 +3152,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2758,6 +3162,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3119,10 +3526,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AH98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AK121" sqref="AK121"/>
+      <selection pane="bottomRight" activeCell="AP24" sqref="AP24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3247,19 +3654,19 @@
       <c r="AL1" s="8">
         <v>2022</v>
       </c>
-      <c r="AM1" s="27">
+      <c r="AM1" s="23">
         <v>2023</v>
       </c>
-      <c r="AN1" s="27">
+      <c r="AN1" s="23">
         <v>2024</v>
       </c>
-      <c r="AO1" s="27">
+      <c r="AO1" s="23">
         <v>2025</v>
       </c>
-      <c r="AP1" s="27">
+      <c r="AP1" s="23">
         <v>2026</v>
       </c>
-      <c r="AQ1" s="27">
+      <c r="AQ1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3268,124 +3675,124 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP2" s="9"/>
       <c r="AQ2" s="9"/>
@@ -3505,37 +3912,37 @@
       <c r="AL3" s="1">
         <v>9211883000</v>
       </c>
-      <c r="AM3" s="28">
-        <v>10253000000</v>
-      </c>
-      <c r="AN3" s="28">
-        <v>8869000000</v>
-      </c>
-      <c r="AO3" s="28">
-        <v>12037000000</v>
-      </c>
-      <c r="AP3" s="28">
-        <v>12951000000</v>
-      </c>
-      <c r="AQ3" s="28">
-        <v>13404000000</v>
+      <c r="AM3" s="24">
+        <v>10391000000</v>
+      </c>
+      <c r="AN3" s="24">
+        <v>9111000000</v>
+      </c>
+      <c r="AO3" s="24">
+        <v>10261000000</v>
+      </c>
+      <c r="AP3" s="24">
+        <v>12143000000</v>
+      </c>
+      <c r="AQ3" s="24">
+        <v>13065000000</v>
       </c>
       <c r="AR3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AS3" s="19" t="s">
+      <c r="AU3" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="AT3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AU3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3684,23 +4091,23 @@
       </c>
       <c r="AM4" s="16">
         <f t="shared" si="0"/>
-        <v>0.11301891263707975</v>
+        <v>0.12799956317291472</v>
       </c>
       <c r="AN4" s="16">
         <f t="shared" si="0"/>
-        <v>-0.13498488247342244</v>
+        <v>-0.12318352420363776</v>
       </c>
       <c r="AO4" s="16">
         <f t="shared" si="0"/>
-        <v>0.357199233284474</v>
+        <v>0.12622105147623741</v>
       </c>
       <c r="AP4" s="16">
         <f t="shared" si="0"/>
-        <v>7.5932541330896441E-2</v>
+        <v>0.1834129227170842</v>
       </c>
       <c r="AQ4" s="16">
         <f t="shared" si="0"/>
-        <v>3.4977993977298949E-2</v>
+        <v>7.5928518488017849E-2</v>
       </c>
       <c r="AR4" s="17">
         <f>(AL4+AK4+AJ4)/3</f>
@@ -3715,7 +4122,7 @@
         <v>0.44712412189471712</v>
       </c>
       <c r="AU4" s="17">
-        <f>(AL105+AK105+AJ105)/3</f>
+        <f>(AL106+AK106+AJ106)/3</f>
         <v>0.44357457000021627</v>
       </c>
     </row>
@@ -3951,16 +4358,16 @@
         <v>5619442000</v>
       </c>
       <c r="AR6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AS6" s="19" t="s">
+      <c r="AU6" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="AT6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AU6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4091,7 +4498,7 @@
         <v>0.36059999999999998</v>
       </c>
       <c r="AU7" s="20">
-        <f>AL106/AL3</f>
+        <f>AL107/AL3</f>
         <v>0.32625056136731218</v>
       </c>
     </row>
@@ -4100,37 +4507,37 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M8" s="1">
         <v>134100000</v>
@@ -4213,7 +4620,7 @@
     </row>
     <row r="9" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
@@ -4364,16 +4771,16 @@
         <v>0.11998133280676708</v>
       </c>
       <c r="AR9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AS9" s="19" t="s">
+      <c r="AT9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AT9" s="19" t="s">
+      <c r="AU9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AU9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4381,28 +4788,28 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1">
         <v>70600000</v>
@@ -4483,13 +4890,13 @@
         <v>599124000</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AR10" s="17">
         <f>AL9</f>
@@ -4505,7 +4912,7 @@
       </c>
       <c r="AU10" s="20">
         <f>AL89</f>
-        <v>0</v>
+        <v>3.0358831088063101E-2</v>
       </c>
     </row>
     <row r="11" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4513,115 +4920,115 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -4635,7 +5042,7 @@
         <v>27100000</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" s="1">
         <v>56200000</v>
@@ -4740,21 +5147,21 @@
         <v>860007000</v>
       </c>
       <c r="AR12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AS12" s="19" t="s">
+      <c r="AU12" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="AT12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AU12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -4959,82 +5366,82 @@
         <v>16300000</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O14" s="1">
         <v>-100000</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" s="1">
         <v>19961000</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -5153,16 +5560,16 @@
         <v>1965261000</v>
       </c>
       <c r="AR15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AS15" s="19" t="s">
+      <c r="AU15" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="AT15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AU15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -5280,95 +5687,95 @@
       <c r="AL16" s="1">
         <v>5557702000</v>
       </c>
-      <c r="AR16" s="29">
+      <c r="AR16" s="25">
         <f>(AL35+AK35+AJ35+AI35+AH35)/5</f>
         <v>-7.5758133508936534E-3</v>
       </c>
-      <c r="AS16" s="30">
+      <c r="AS16" s="54">
         <f>AT101/AL3</f>
-        <v>6.9610113243948062</v>
-      </c>
-      <c r="AT16" s="30">
+        <v>6.9420963421919275</v>
+      </c>
+      <c r="AT16" s="54">
         <f>AT101/AL28</f>
-        <v>19.303957719999989</v>
-      </c>
-      <c r="AU16" s="31">
-        <f>AT101/AL106</f>
-        <v>21.336396465407724</v>
+        <v>19.251503557852701</v>
+      </c>
+      <c r="AU16" s="56">
+        <f>AT101/AL107</f>
+        <v>21.278419608222848</v>
       </c>
     </row>
-    <row r="17" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y17" s="1">
         <v>55339000</v>
@@ -5413,7 +5820,7 @@
         <v>160339000</v>
       </c>
     </row>
-    <row r="18" spans="1:44" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -5493,7 +5900,7 @@
         <v>87348000</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB18" s="1">
         <v>92133000</v>
@@ -5529,10 +5936,19 @@
         <v>363344000</v>
       </c>
       <c r="AR18" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="AS18" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT18" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU18" s="19" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -5647,14 +6063,41 @@
       <c r="AL19" s="10">
         <v>4012667000</v>
       </c>
-      <c r="AR19" s="32">
+      <c r="AM19" s="59">
+        <v>4629000000</v>
+      </c>
+      <c r="AN19" s="59">
+        <v>3776000000</v>
+      </c>
+      <c r="AO19" s="59">
+        <v>4441000000</v>
+      </c>
+      <c r="AP19" s="59">
+        <v>4897000000</v>
+      </c>
+      <c r="AQ19" s="59">
+        <v>5400000000</v>
+      </c>
+      <c r="AR19" s="26">
         <f>AL40-AL56-AL61</f>
         <v>-4066297000</v>
       </c>
+      <c r="AS19" s="54">
+        <f>AT101/AM3</f>
+        <v>6.1543431122124916</v>
+      </c>
+      <c r="AT19" s="55">
+        <f>AT101/AM28</f>
+        <v>18.360545299741602</v>
+      </c>
+      <c r="AU19" s="56">
+        <f>AT101/AM106</f>
+        <v>18.742608229484173</v>
+      </c>
     </row>
-    <row r="20" spans="1:44" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -5670,7 +6113,7 @@
         <v>0.31891891891891899</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:AL20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:AQ20" si="3">(F19/E19)-1</f>
         <v>-6.9672131147541005E-2</v>
       </c>
       <c r="G20" s="15">
@@ -5801,8 +6244,28 @@
         <f t="shared" si="3"/>
         <v>0.40693836306159481</v>
       </c>
+      <c r="AM20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.15359684718417954</v>
+      </c>
+      <c r="AN20" s="16">
+        <f t="shared" si="3"/>
+        <v>-0.18427306113631459</v>
+      </c>
+      <c r="AO20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.17611228813559321</v>
+      </c>
+      <c r="AP20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.10267957667192085</v>
+      </c>
+      <c r="AQ20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.1027159485399225</v>
+      </c>
     </row>
-    <row r="21" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5917,8 +6380,34 @@
       <c r="AL21" s="2">
         <v>0.43559999999999999</v>
       </c>
+      <c r="AM21" s="60">
+        <f>AM19/AM3</f>
+        <v>0.44548166682706186</v>
+      </c>
+      <c r="AN21" s="60">
+        <f t="shared" ref="AN21:AQ21" si="4">AN19/AN3</f>
+        <v>0.4144440785863242</v>
+      </c>
+      <c r="AO21" s="60">
+        <f t="shared" si="4"/>
+        <v>0.43280382029042003</v>
+      </c>
+      <c r="AP21" s="60">
+        <f t="shared" si="4"/>
+        <v>0.40327760849872357</v>
+      </c>
+      <c r="AQ21" s="60">
+        <f t="shared" si="4"/>
+        <v>0.41331802525832378</v>
+      </c>
+      <c r="AT21" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU21" s="19" t="s">
+        <v>164</v>
+      </c>
     </row>
-    <row r="22" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -6033,8 +6522,16 @@
       <c r="AL22" s="10">
         <v>3654181000</v>
       </c>
+      <c r="AT22" s="57">
+        <f>(-1*AL98)/AT101</f>
+        <v>9.9848350877683404E-3</v>
+      </c>
+      <c r="AU22" s="58">
+        <f>AL107/AT101</f>
+        <v>4.6995971430771076E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -6150,7 +6647,7 @@
         <v>0.3967</v>
       </c>
     </row>
-    <row r="24" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -6266,7 +6763,7 @@
         <v>-164944000</v>
       </c>
     </row>
-    <row r="25" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -6382,7 +6879,7 @@
         <v>3489237000</v>
       </c>
     </row>
-    <row r="26" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -6498,7 +6995,7 @@
         <v>0.37880000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -6614,7 +7111,7 @@
         <v>167177000</v>
       </c>
     </row>
-    <row r="28" spans="1:44" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -6729,10 +7226,25 @@
       <c r="AL28" s="11">
         <v>3321807000</v>
       </c>
+      <c r="AM28" s="61">
+        <v>3483000000</v>
+      </c>
+      <c r="AN28" s="61">
+        <v>2767000000</v>
+      </c>
+      <c r="AO28" s="61">
+        <v>3311000000</v>
+      </c>
+      <c r="AP28" s="61">
+        <v>4290000000</v>
+      </c>
+      <c r="AQ28" s="61">
+        <v>4707000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:44" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -6748,139 +7260,159 @@
         <v>0.32954545454545459</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AL29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AQ29" si="5">(F28/E28)-1</f>
         <v>-0.19658119658119655</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.1276595744680851</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.30188679245283012</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.5072463768115942</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3142857142857141</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.9403973509933774</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0631399317406145</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.12820512820512819</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.27229601518026558</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.70768083519761371</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.4744387755102037</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.73725955287275702</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2416957845327894</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.36534422619653417</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.7763628809470009</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.91503112420548138</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.18479520886231904</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.3880804937285125</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.32004476441872531</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.4575126085055548</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.4056419192613991</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.7422892133772963</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-4.8424897544078749E-2</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.28156319649742401</v>
       </c>
       <c r="AD29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.2919217378656587E-2</v>
       </c>
       <c r="AE29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.3716776346835291</v>
       </c>
       <c r="AF29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.92381977179250496</v>
       </c>
       <c r="AG29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.31466081411426683</v>
       </c>
       <c r="AH29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.1336942108423067</v>
       </c>
       <c r="AI29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.46537241435186627</v>
       </c>
       <c r="AJ29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.5018207460422834E-2</v>
       </c>
       <c r="AK29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.70801908307548178</v>
       </c>
       <c r="AL29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.5983350751482468</v>
       </c>
+      <c r="AM29" s="16">
+        <f t="shared" si="5"/>
+        <v>4.8525697007682833E-2</v>
+      </c>
+      <c r="AN29" s="16">
+        <f t="shared" si="5"/>
+        <v>-0.20556991099626754</v>
+      </c>
+      <c r="AO29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.19660281893747733</v>
+      </c>
+      <c r="AP29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.29568106312292364</v>
+      </c>
+      <c r="AQ29" s="16">
+        <f t="shared" si="5"/>
+        <v>9.720279720279712E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -6995,8 +7527,28 @@
       <c r="AL30" s="2">
         <v>0.36059999999999998</v>
       </c>
+      <c r="AM30" s="62">
+        <f>AM28/AM3</f>
+        <v>0.33519391781349245</v>
+      </c>
+      <c r="AN30" s="62">
+        <f t="shared" ref="AN30:AQ30" si="6">AN28/AN3</f>
+        <v>0.3036988255954341</v>
+      </c>
+      <c r="AO30" s="62">
+        <f t="shared" si="6"/>
+        <v>0.32267810154955656</v>
+      </c>
+      <c r="AP30" s="62">
+        <f t="shared" si="6"/>
+        <v>0.35328996129457302</v>
+      </c>
+      <c r="AQ30" s="62">
+        <f t="shared" si="6"/>
+        <v>0.3602755453501722</v>
+      </c>
     </row>
-    <row r="31" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -7111,8 +7663,23 @@
       <c r="AL31" s="12">
         <v>22.07</v>
       </c>
+      <c r="AM31" s="63">
+        <v>25.38</v>
+      </c>
+      <c r="AN31" s="63">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="AO31" s="63">
+        <v>24.13</v>
+      </c>
+      <c r="AP31" s="63">
+        <v>31.27</v>
+      </c>
+      <c r="AQ31" s="63">
+        <v>34.31</v>
+      </c>
     </row>
-    <row r="32" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -7462,7 +8029,7 @@
     </row>
     <row r="35" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -7470,143 +8037,143 @@
         <v>2.2412579206758976E-2</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AL35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AL35" si="7">(D34-C34)/C34</f>
         <v>2.0486629174796281E-2</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.1050441432829102E-3</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.3364695340501791E-3</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7290265191527213E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.8745218056618211E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.9504854889759132E-3</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.1790757381258023</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.10846488840500816</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.0779619398403923E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0261805117621203</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.1651073301392085</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.5584374505772579E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.0287983244611222E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.5231715170021393E-3</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.6331067283583633E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-9.2017050367763E-3</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.6008932926046663E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.8900093657550333E-3</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.5337240192225416E-2</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-9.2750015923800944E-3</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-8.8747007972146935E-2</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-7.6012569263916557E-2</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.6334513929269968E-2</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.5499843961302403E-2</v>
       </c>
       <c r="AB35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.2033906264675496E-3</v>
       </c>
       <c r="AC35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.2131392266687041E-3</v>
       </c>
       <c r="AD35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-6.7470164244357797E-3</v>
       </c>
       <c r="AE35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.6273212862394271E-2</v>
       </c>
       <c r="AF35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.2284408769647099E-2</v>
       </c>
       <c r="AG35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.4776405003221099E-3</v>
       </c>
       <c r="AH35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-6.5404715489487616E-4</v>
       </c>
       <c r="AI35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.7259210308937716E-3</v>
       </c>
       <c r="AJ35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.7283002758857973E-3</v>
       </c>
       <c r="AK35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.6252650232587575E-2</v>
       </c>
       <c r="AL35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.4974748611977841E-2</v>
       </c>
     </row>
@@ -7615,115 +8182,115 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:38" ht="21" x14ac:dyDescent="0.25">
@@ -7731,115 +8298,115 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -7847,28 +8414,28 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J38" s="1">
         <v>139100000</v>
@@ -7963,37 +8530,37 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M39" s="1">
         <v>69600000</v>
@@ -8079,28 +8646,28 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J40" s="1">
         <v>139100000</v>
@@ -8195,28 +8762,28 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J41" s="1">
         <v>74200000</v>
@@ -8311,28 +8878,28 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1">
         <v>53300000</v>
@@ -8427,28 +8994,28 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J43" s="1">
         <v>11900000</v>
@@ -8543,28 +9110,28 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J44" s="10">
         <v>278500000</v>
@@ -8659,28 +9226,28 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J45" s="1">
         <v>37100000</v>
@@ -8775,64 +9342,64 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V46" s="1">
         <v>70341000</v>
@@ -8891,58 +9458,58 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T47" s="1">
         <v>20621000</v>
@@ -8951,7 +9518,7 @@
         <v>58670000</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W47" s="1">
         <v>175432000</v>
@@ -9007,58 +9574,58 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T48" s="1">
         <v>20621000</v>
@@ -9123,115 +9690,115 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -9239,58 +9806,58 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T50" s="1">
         <v>88593000</v>
@@ -9308,10 +9875,10 @@
         <v>323870000</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA50" s="1">
         <v>173788000</v>
@@ -9355,28 +9922,28 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J51" s="1">
         <v>6000000</v>
@@ -9471,28 +10038,28 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J52" s="1">
         <v>43100000</v>
@@ -9587,115 +10154,115 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:38" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -9703,28 +10270,28 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J54" s="11">
         <v>321600000</v>
@@ -9819,28 +10386,28 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J55" s="1">
         <v>11900000</v>
@@ -9935,28 +10502,28 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1">
         <v>4700000</v>
@@ -9977,61 +10544,61 @@
         <v>14600000</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE56" s="1">
         <v>16981000</v>
       </c>
       <c r="AF56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG56" s="1">
         <v>249983000</v>
       </c>
       <c r="AH56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI56" s="1">
         <v>249999000</v>
@@ -10051,85 +10618,85 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA57" s="1">
         <v>16564000</v>
       </c>
       <c r="AB57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC57" s="1">
         <v>11076000</v>
@@ -10167,52 +10734,52 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R58" s="1">
         <v>248738000</v>
@@ -10283,28 +10850,28 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J59" s="1">
         <v>49000000</v>
@@ -10399,28 +10966,28 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J60" s="10">
         <v>65600000</v>
@@ -10515,70 +11082,70 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J61" s="1">
         <v>20000000</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X61" s="1">
         <v>744661000</v>
@@ -10631,73 +11198,73 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y62" s="1">
         <v>6058000</v>
@@ -10706,7 +11273,7 @@
         <v>20354000</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB62" s="1">
         <v>34899000</v>
@@ -10747,28 +11314,28 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1">
         <v>8600000</v>
@@ -10783,37 +11350,37 @@
         <v>3900000</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y63" s="1">
         <v>49738000</v>
@@ -10822,28 +11389,28 @@
         <v>53492000</v>
       </c>
       <c r="AA63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI63" s="1">
         <v>702285000</v>
@@ -10863,31 +11430,31 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K64" s="1">
         <v>-100000</v>
@@ -10896,34 +11463,34 @@
         <v>100000</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W64" s="1">
         <v>67600000</v>
@@ -10979,28 +11546,28 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J65" s="1">
         <v>28600000</v>
@@ -11015,31 +11582,31 @@
         <v>3900000</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W65" s="1">
         <v>67600000</v>
@@ -11095,115 +11662,115 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -11211,28 +11778,28 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J67" s="10">
         <v>94200000</v>
@@ -11327,37 +11894,37 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M68" s="1">
         <v>100000</v>
@@ -11396,7 +11963,7 @@
         <v>174000</v>
       </c>
       <c r="Y68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z68" s="1">
         <v>168000</v>
@@ -11443,28 +12010,28 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J69" s="1">
         <v>80300000</v>
@@ -11559,28 +12126,28 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J70" s="1">
         <v>-31800000</v>
@@ -11675,28 +12242,28 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J71" s="1">
         <v>178900000</v>
@@ -11791,28 +12358,28 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J72" s="10">
         <v>227400000</v>
@@ -11907,28 +12474,28 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J73" s="11">
         <v>321600000</v>
@@ -12023,115 +12590,115 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:38" ht="21" x14ac:dyDescent="0.25">
@@ -12139,115 +12706,115 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -12255,16 +12822,16 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F76" s="1">
         <v>9400000</v>
@@ -12371,16 +12938,16 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F77" s="1">
         <v>8700000</v>
@@ -12446,7 +13013,7 @@
         <v>87348000</v>
       </c>
       <c r="AA77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB77" s="1">
         <v>92133000</v>
@@ -12487,16 +13054,16 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1">
         <v>1500000</v>
@@ -12603,73 +13170,73 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y79" s="1">
         <v>105535000</v>
@@ -12716,154 +13283,154 @@
     </row>
     <row r="80" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AL80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:AL80" si="8">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="P80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="R80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="S80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="T80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="U80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="V80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="W80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="X80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.9421055955206368E-2</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.7223137590896108E-2</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.5645895160789967E-2</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.4853843573530932E-2</v>
       </c>
       <c r="AC80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.4653323629220823E-2</v>
       </c>
       <c r="AD80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.0802837979550817E-2</v>
       </c>
       <c r="AE80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.9652109824669008E-2</v>
       </c>
       <c r="AF80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.5094691125092268E-2</v>
       </c>
       <c r="AG80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.4638734211988802E-2</v>
       </c>
       <c r="AH80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.555329463341476E-2</v>
       </c>
       <c r="AI80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.061632286430181E-2</v>
       </c>
       <c r="AJ80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.9182374556181221E-2</v>
       </c>
       <c r="AK80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.6164228889273675E-2</v>
       </c>
       <c r="AL80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3777639164544317E-2</v>
       </c>
     </row>
@@ -12872,16 +13439,16 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F81" s="1">
         <v>7000000</v>
@@ -12988,73 +13555,73 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y82" s="1">
         <v>277331000</v>
@@ -13104,16 +13671,16 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1">
         <v>-2400000</v>
@@ -13214,86 +13781,86 @@
       <c r="AL83" s="1">
         <v>-567003000</v>
       </c>
-      <c r="AS83" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="AT83" s="63"/>
+      <c r="AS83" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT83" s="68"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z84" s="1">
         <v>44381000</v>
@@ -13334,38 +13901,38 @@
       <c r="AL84" s="1">
         <v>101632000</v>
       </c>
-      <c r="AS84" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="AT84" s="65"/>
+      <c r="AS84" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT84" s="69"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J85" s="1">
         <v>212900000</v>
@@ -13454,10 +14021,10 @@
       <c r="AL85" s="1">
         <v>343086000</v>
       </c>
-      <c r="AS85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT85" s="24">
+      <c r="AS85" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT85" s="32">
         <f>AL17</f>
         <v>160339000</v>
       </c>
@@ -13467,16 +14034,16 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F86" s="1">
         <v>1300000</v>
@@ -13491,7 +14058,7 @@
         <v>-500000</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K86" s="1">
         <v>16200000</v>
@@ -13577,10 +14144,10 @@
       <c r="AL86" s="1">
         <v>135545000</v>
       </c>
-      <c r="AS86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AT86" s="24">
+      <c r="AS86" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT86" s="32">
         <f>AL56</f>
         <v>32218000</v>
       </c>
@@ -13590,16 +14157,16 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F87" s="10">
         <v>27900000</v>
@@ -13700,10 +14267,10 @@
       <c r="AL87" s="10">
         <v>3312702000</v>
       </c>
-      <c r="AS87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AT87" s="24">
+      <c r="AS87" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT87" s="32">
         <f>AL61</f>
         <v>6742087000</v>
       </c>
@@ -13713,16 +14280,16 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F88" s="1">
         <v>-11300000</v>
@@ -13782,49 +14349,49 @@
         <v>-57323000</v>
       </c>
       <c r="Y88" s="1">
-        <v>0</v>
+        <v>97921000</v>
       </c>
       <c r="Z88" s="1">
-        <v>0</v>
+        <v>-24324000</v>
       </c>
       <c r="AA88" s="1">
-        <v>0</v>
+        <v>-32966000</v>
       </c>
       <c r="AB88" s="1">
-        <v>0</v>
+        <v>-55368000</v>
       </c>
       <c r="AC88" s="1">
-        <v>0</v>
+        <v>-72735000</v>
       </c>
       <c r="AD88" s="1">
-        <v>0</v>
+        <v>-63666000</v>
       </c>
       <c r="AE88" s="1">
-        <v>0</v>
+        <v>-45791000</v>
       </c>
       <c r="AF88" s="1">
-        <v>0</v>
+        <v>-24665000</v>
       </c>
       <c r="AG88" s="1">
-        <v>0</v>
+        <v>-35647000</v>
       </c>
       <c r="AH88" s="1">
-        <v>0</v>
+        <v>-66947000</v>
       </c>
       <c r="AI88" s="1">
-        <v>0</v>
+        <v>-130498000</v>
       </c>
       <c r="AJ88" s="1">
-        <v>0</v>
+        <v>-152675000</v>
       </c>
       <c r="AK88" s="1">
-        <v>0</v>
+        <v>-229773000</v>
       </c>
       <c r="AL88" s="1">
-        <v>0</v>
+        <v>-279662000</v>
       </c>
       <c r="AS88" s="33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AT88" s="34">
         <f>AT85/(AT86+AT87)</f>
@@ -13833,160 +14400,160 @@
     </row>
     <row r="89" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15" t="e">
+        <f t="shared" ref="B89:AL89" si="9">(-1*B88)/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D89" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E89" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.7301965455628346E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.22641509433962265</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.2692307692307694E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.9138755980861243E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.3799753795650389E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.2947558770343577E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.6267088789753922E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.5049428183756542E-2</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="9"/>
+        <v>7.1336705821829716E-2</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="9"/>
+        <v>8.3965844402277043E-2</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.579811210478699E-2</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="9"/>
+        <v>7.7097782681174676E-2</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.1934132299750439E-2</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.1011043430742172</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.7099841119035117E-2</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.8619003018003953E-2</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.5646207646282985E-2</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.0675567665691891E-2</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.2731742987711544E-2</v>
+      </c>
+      <c r="Y89" s="15">
+        <f t="shared" si="9"/>
+        <v>-6.4412557162929485E-2</v>
+      </c>
+      <c r="Z89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.3359256574177816E-2</v>
+      </c>
+      <c r="AA89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.0382446025673611E-2</v>
+      </c>
+      <c r="AB89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.7455541459748345E-2</v>
+      </c>
+      <c r="AC89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.5585861169045383E-2</v>
+      </c>
+      <c r="AD89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.173340142445163E-2</v>
+      </c>
+      <c r="AE89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.6272282394514097E-2</v>
+      </c>
+      <c r="AF89" s="15">
+        <f t="shared" si="9"/>
+        <v>8.264385274148741E-3</v>
+      </c>
+      <c r="AG89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.0243349595720017E-2</v>
+      </c>
+      <c r="AH89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.6584582311149624E-2</v>
+      </c>
+      <c r="AI89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.8562210981014264E-2</v>
+      </c>
+      <c r="AJ89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.6294152821082304E-2</v>
+      </c>
+      <c r="AK89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.3210266502513318E-2</v>
+      </c>
+      <c r="AL89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.0358831088063101E-2</v>
+      </c>
+      <c r="AS89" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:AL89" si="7">(-1*B88)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.7301965455628346E-2</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.22641509433962265</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.2692307692307694E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.9138755980861243E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.3799753795650389E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.2947558770343577E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.6267088789753922E-2</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.5049428183756542E-2</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.1336705821829716E-2</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.3965844402277043E-2</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.579811210478699E-2</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.7097782681174676E-2</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.1934132299750439E-2</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.1011043430742172</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.7099841119035117E-2</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.8619003018003953E-2</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.5646207646282985E-2</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.0675567665691891E-2</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.2731742987711544E-2</v>
-      </c>
-      <c r="Y89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AC89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AJ89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AK89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AL89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AS89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT89" s="24">
+      <c r="AT89" s="32">
         <f>AL27</f>
         <v>167177000</v>
       </c>
@@ -13996,49 +14563,49 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q90" s="1">
         <v>-20818000</v>
@@ -14047,10 +14614,10 @@
         <v>-4035000</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U90" s="1">
         <v>-44628000</v>
@@ -14071,22 +14638,22 @@
         <v>-1500000</v>
       </c>
       <c r="AA90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD90" s="1">
         <v>-18000000</v>
       </c>
       <c r="AE90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG90" s="1">
         <v>-28560000</v>
@@ -14106,10 +14673,10 @@
       <c r="AL90" s="1">
         <v>-479113000</v>
       </c>
-      <c r="AS90" s="23" t="s">
+      <c r="AS90" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="AT90" s="24">
+      <c r="AT90" s="32">
         <f>AL25</f>
         <v>3489237000</v>
       </c>
@@ -14119,31 +14686,31 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1">
         <v>-1100000</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K91" s="1">
         <v>-329700000</v>
@@ -14230,7 +14797,7 @@
         <v>-1108914000</v>
       </c>
       <c r="AS91" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AT91" s="34">
         <f>AT89/AT90</f>
@@ -14242,16 +14809,16 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1">
         <v>3000000</v>
@@ -14260,13 +14827,13 @@
         <v>9800000</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K92" s="1">
         <v>178300000</v>
@@ -14352,10 +14919,10 @@
       <c r="AL92" s="1">
         <v>991231000</v>
       </c>
-      <c r="AS92" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="AT92" s="36">
+      <c r="AS92" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT92" s="34">
         <f>AT88*(1-AT91)</f>
         <v>2.253468167270389E-2</v>
       </c>
@@ -14365,16 +14932,16 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1">
         <v>-2200000</v>
@@ -14389,46 +14956,46 @@
         <v>-400000</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K93" s="1">
         <v>-14200000</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N93" s="1">
         <v>100000</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S93" s="1">
         <v>3197000</v>
       </c>
       <c r="T93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X93" s="1">
         <v>68787000</v>
@@ -14475,26 +15042,26 @@
       <c r="AL93" s="1">
         <v>-279662000</v>
       </c>
-      <c r="AS93" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="AT93" s="65"/>
+      <c r="AS93" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT93" s="69"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F94" s="10">
         <v>-11600000</v>
@@ -14595,11 +15162,12 @@
       <c r="AL94" s="10">
         <v>-876458000</v>
       </c>
-      <c r="AS94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AT94" s="37">
-        <v>4.095E-2</v>
+      <c r="AS94" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT94" s="35">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.857E-2</v>
       </c>
     </row>
     <row r="95" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14607,91 +15175,91 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE95" s="1">
         <v>-916117000</v>
@@ -14717,12 +15285,12 @@
       <c r="AL95" s="1">
         <v>-620000000</v>
       </c>
-      <c r="AS95" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="AT95" s="59" cm="1">
+      <c r="AS95" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT95" s="37" cm="1">
         <f t="array" ref="AT95">_FV(A1,"Beta")</f>
-        <v>1.35</v>
+        <v>1.3354999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14730,16 +15298,16 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1">
         <v>1000000</v>
@@ -14840,10 +15408,10 @@
       <c r="AL96" s="1">
         <v>113014000</v>
       </c>
-      <c r="AS96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT96" s="37">
+      <c r="AS96" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT96" s="38">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -14852,16 +15420,16 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1">
         <v>-3500000</v>
@@ -14870,22 +15438,22 @@
         <v>-600000</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N97" s="1">
         <v>-16000000</v>
@@ -14962,12 +15530,12 @@
       <c r="AL97" s="1">
         <v>-3967806000</v>
       </c>
-      <c r="AS97" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AT97" s="36">
+      <c r="AS97" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT97" s="34">
         <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>9.9067500000000003E-2</v>
+        <v>9.924176500000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -14975,61 +15543,61 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U98" s="1">
         <v>-23644000</v>
@@ -15085,29 +15653,29 @@
       <c r="AL98" s="1">
         <v>-638528000</v>
       </c>
-      <c r="AS98" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="AT98" s="65"/>
+      <c r="AS98" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="AT98" s="69"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G99" s="1">
         <v>25100000</v>
@@ -15140,16 +15708,16 @@
         <v>-18316000</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R99" s="1">
         <v>-448000</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U99" s="1">
         <v>12631000</v>
@@ -15205,10 +15773,10 @@
       <c r="AL99" s="1">
         <v>2856315000</v>
       </c>
-      <c r="AS99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT99" s="24">
+      <c r="AS99" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT99" s="32">
         <f>AT86+AT87</f>
         <v>6774305000</v>
       </c>
@@ -15218,16 +15786,16 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F100" s="10">
         <v>-2500000</v>
@@ -15329,11 +15897,11 @@
         <v>-2257005000</v>
       </c>
       <c r="AS100" s="33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AT100" s="34">
         <f>AT99/AT103</f>
-        <v>9.5549574974806525E-2</v>
+        <v>9.5784980025700878E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15341,16 +15909,16 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1">
         <v>400000</v>
@@ -15451,12 +16019,12 @@
       <c r="AL101" s="1">
         <v>-28941000</v>
       </c>
-      <c r="AS101" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="AT101" s="50" cm="1">
+      <c r="AS101" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT101" s="39" cm="1">
         <f t="array" ref="AT101">_FV(A1,"Market cap",TRUE)</f>
-        <v>64124021882</v>
+        <v>63949779279</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15464,16 +16032,16 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F102" s="10">
         <v>-2500000</v>
@@ -15488,13 +16056,13 @@
         <v>2800000</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M102" s="10">
         <v>77500000</v>
@@ -15575,11 +16143,11 @@
         <v>150298000</v>
       </c>
       <c r="AS102" s="33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AT102" s="34">
         <f>AT101/AT103</f>
-        <v>0.90445042502519346</v>
+        <v>0.90421501997429909</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15587,16 +16155,16 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F103" s="1">
         <v>18200000</v>
@@ -15697,12 +16265,12 @@
       <c r="AL103" s="1">
         <v>1434610000</v>
       </c>
-      <c r="AS103" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AT103" s="38">
+      <c r="AS103" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT103" s="40">
         <f>AT99+AT101</f>
-        <v>70898326882</v>
+        <v>70724084279</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -15710,37 +16278,37 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M104" s="11">
         <v>279200000</v>
@@ -15820,492 +16388,617 @@
       <c r="AL104" s="11">
         <v>1584908000</v>
       </c>
-      <c r="AS104" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT104" s="65"/>
+      <c r="AS104" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT104" s="69"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
+        <v>157</v>
+      </c>
+      <c r="B105" s="1" t="e">
+        <f t="shared" ref="B105:AK105" si="10">(B22*(1-$AT$91))+B77+B88+B81</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
+      <c r="C105" s="1" t="e">
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E105" s="15" t="e">
-        <f>(E106/D106)-1</f>
+      <c r="D105" s="1" t="e">
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F105" s="15" t="e">
-        <f>(F106/E106)-1</f>
+      <c r="E105" s="1" t="e">
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>-3.1325301204819276</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:AL105" si="8">(H106/G106)-1</f>
-        <v>-0.73163841807909602</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
-        <v>-3.8526315789473684</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.79704797047970477</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.4</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>6.7575757575757578</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>6.01171875</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.1832869080779944</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
-        <v>-2.5653495440729484</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.9883106796116503</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.59666142509974129</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.12344794748558341</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.47773098904772293</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.6148669671351485</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.51984198484441557</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.46011944705408669</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.183071689889335</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.15932314045822382</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.7160392370001244</v>
-      </c>
-      <c r="Z105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.4074876915449273</v>
-      </c>
-      <c r="AA105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.84870377731694124</v>
-      </c>
-      <c r="AB105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.14508267326412061</v>
-      </c>
-      <c r="AC105" s="15">
-        <f t="shared" si="8"/>
-        <v>-5.1363033231111022E-2</v>
-      </c>
-      <c r="AD105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.15171562636012947</v>
-      </c>
-      <c r="AE105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.21264043048480141</v>
-      </c>
-      <c r="AF105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.29965274988172075</v>
-      </c>
-      <c r="AG105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.4301309833712248</v>
-      </c>
-      <c r="AH105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.11631099127725197</v>
-      </c>
-      <c r="AI105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.12048695574357726</v>
-      </c>
-      <c r="AJ105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.59096067638881</v>
-      </c>
-      <c r="AK105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.20122250065337366</v>
-      </c>
-      <c r="AL105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.53854053295846516</v>
-      </c>
-      <c r="AM105" s="15"/>
-      <c r="AN105" s="15"/>
-      <c r="AO105" s="15"/>
-      <c r="AP105" s="15"/>
-      <c r="AQ105" s="15"/>
-      <c r="AR105" s="15"/>
-      <c r="AS105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AT105" s="26">
+      <c r="F105" s="1">
+        <f t="shared" si="10"/>
+        <v>16681932.697606955</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="10"/>
+        <v>-29139560.969919786</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="10"/>
+        <v>-7948394.1618181858</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="10"/>
+        <v>31953800.98858289</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="10"/>
+        <v>15578721.021243326</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="10"/>
+        <v>40259021.585521415</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="10"/>
+        <v>85995585.567847639</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="10"/>
+        <v>232214402.11713907</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="10"/>
+        <v>15313652.870240688</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="10"/>
+        <v>6593495.5980347544</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="10"/>
+        <v>256568387.17404407</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="10"/>
+        <v>377407792.24856323</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="10"/>
+        <v>190055639.07868683</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="10"/>
+        <v>131563524.62615752</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="10"/>
+        <v>310195925.82131851</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="10"/>
+        <v>550352176.448318</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="10"/>
+        <v>103970233.51351601</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="10"/>
+        <v>414019129.95907128</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="10"/>
+        <v>615827800.21706748</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="10"/>
+        <v>-351401578.69671798</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="10"/>
+        <v>445105617.66483617</v>
+      </c>
+      <c r="AA105" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB105" s="1">
+        <f t="shared" si="10"/>
+        <v>823376639.44925499</v>
+      </c>
+      <c r="AC105" s="1">
+        <f t="shared" si="10"/>
+        <v>933730190.73281634</v>
+      </c>
+      <c r="AD105" s="1">
+        <f t="shared" si="10"/>
+        <v>814527432.39080632</v>
+      </c>
+      <c r="AE105" s="1">
+        <f t="shared" si="10"/>
+        <v>676280749.63064992</v>
+      </c>
+      <c r="AF105" s="1">
+        <f t="shared" si="10"/>
+        <v>896609972.84907842</v>
+      </c>
+      <c r="AG105" s="1">
+        <f t="shared" si="10"/>
+        <v>1278953535.393841</v>
+      </c>
+      <c r="AH105" s="1">
+        <f t="shared" si="10"/>
+        <v>1660712662.8810253</v>
+      </c>
+      <c r="AI105" s="1">
+        <f t="shared" si="10"/>
+        <v>1099188091.3079278</v>
+      </c>
+      <c r="AJ105" s="1">
+        <f t="shared" si="10"/>
+        <v>1782588637.6113174</v>
+      </c>
+      <c r="AK105" s="1">
+        <f t="shared" si="10"/>
+        <v>2229500463.5148029</v>
+      </c>
+      <c r="AL105" s="1">
+        <f>(AL22*(1-$AT$91))+AL77+AL88+AL81</f>
+        <v>3257372171.07551</v>
+      </c>
+      <c r="AM105" s="27">
+        <f>AL105*(1+$AT$106)</f>
+        <v>3511693804.112318</v>
+      </c>
+      <c r="AN105" s="27">
+        <f t="shared" ref="AN105:AQ105" si="11">AM105*(1+$AT$106)</f>
+        <v>3785871778.2835054</v>
+      </c>
+      <c r="AO105" s="27">
+        <f t="shared" si="11"/>
+        <v>4081456391.4482703</v>
+      </c>
+      <c r="AP105" s="27">
+        <f t="shared" si="11"/>
+        <v>4400118982.0661907</v>
+      </c>
+      <c r="AQ105" s="27">
+        <f t="shared" si="11"/>
+        <v>4743661379.5275917</v>
+      </c>
+      <c r="AR105" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS105" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT105" s="42">
         <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>9.1754821737202771E-2</v>
+        <v>9.1894378555665165E-2</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F106" s="1">
-        <v>16600000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>-35400000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>-9500000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>27100000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>5500000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>3300000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>25600000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>179500000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>-32900000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>51500000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>153898000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>245723000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>215389000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>112491000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>294149000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>447060000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>241359000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>526904000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>610852000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>173458000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>417598000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>772015000</v>
-      </c>
-      <c r="AB106" s="1">
-        <v>884021000</v>
-      </c>
-      <c r="AC106" s="1">
-        <v>838615000</v>
-      </c>
-      <c r="AD106" s="1">
-        <v>711384000</v>
-      </c>
-      <c r="AE106" s="1">
-        <v>560115000</v>
-      </c>
-      <c r="AF106" s="1">
-        <v>727955000</v>
-      </c>
-      <c r="AG106" s="1">
-        <v>1041071000</v>
-      </c>
-      <c r="AH106" s="1">
-        <v>1162159000</v>
-      </c>
-      <c r="AI106" s="1">
-        <v>1022134000</v>
-      </c>
-      <c r="AJ106" s="1">
-        <v>1626175000</v>
-      </c>
-      <c r="AK106" s="1">
-        <v>1953398000</v>
-      </c>
-      <c r="AL106" s="1">
-        <v>3005382000</v>
-      </c>
-      <c r="AM106" s="39">
-        <f>AL106*(1+$AT$106)</f>
-        <v>3273548508.4387774</v>
-      </c>
-      <c r="AN106" s="39">
-        <f t="shared" ref="AN106:AQ106" si="9">AM106*(1+$AT$106)</f>
-        <v>3565643181.8323741</v>
-      </c>
-      <c r="AO106" s="39">
-        <f t="shared" si="9"/>
-        <v>3883801100.6628323</v>
-      </c>
-      <c r="AP106" s="39">
-        <f t="shared" si="9"/>
-        <v>4230347855.9955759</v>
-      </c>
-      <c r="AQ106" s="39">
-        <f t="shared" si="9"/>
-        <v>4607816548.5024853</v>
-      </c>
-      <c r="AR106" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="AS106" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT106" s="42">
+      <c r="A106" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f t="shared" ref="C106:AL106" si="12">(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="15" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F106" s="15" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="12"/>
+        <v>-3.1325301204819276</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.73163841807909602</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="12"/>
+        <v>-3.8526315789473684</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.79704797047970477</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.4</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="12"/>
+        <v>6.7575757575757578</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="12"/>
+        <v>6.01171875</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="12"/>
+        <v>-1.1832869080779944</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="12"/>
+        <v>-2.5653495440729484</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" si="12"/>
+        <v>1.9883106796116503</v>
+      </c>
+      <c r="Q106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.59666142509974129</v>
+      </c>
+      <c r="R106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.12344794748558341</v>
+      </c>
+      <c r="S106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.47773098904772293</v>
+      </c>
+      <c r="T106" s="15">
+        <f t="shared" si="12"/>
+        <v>1.6148669671351485</v>
+      </c>
+      <c r="U106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.51984198484441557</v>
+      </c>
+      <c r="V106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.46011944705408669</v>
+      </c>
+      <c r="W106" s="15">
+        <f t="shared" si="12"/>
+        <v>1.183071689889335</v>
+      </c>
+      <c r="X106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.15932314045822382</v>
+      </c>
+      <c r="Y106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.7160392370001244</v>
+      </c>
+      <c r="Z106" s="15">
+        <f t="shared" si="12"/>
+        <v>1.4074876915449273</v>
+      </c>
+      <c r="AA106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.84870377731694124</v>
+      </c>
+      <c r="AB106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.14508267326412061</v>
+      </c>
+      <c r="AC106" s="15">
+        <f t="shared" si="12"/>
+        <v>-5.1363033231111022E-2</v>
+      </c>
+      <c r="AD106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.15171562636012947</v>
+      </c>
+      <c r="AE106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.21264043048480141</v>
+      </c>
+      <c r="AF106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.29965274988172075</v>
+      </c>
+      <c r="AG106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.4301309833712248</v>
+      </c>
+      <c r="AH106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.11631099127725197</v>
+      </c>
+      <c r="AI106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.12048695574357726</v>
+      </c>
+      <c r="AJ106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.59096067638881</v>
+      </c>
+      <c r="AK106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.20122250065337366</v>
+      </c>
+      <c r="AL106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.53854053295846516</v>
+      </c>
+      <c r="AM106" s="30">
+        <v>3412000000</v>
+      </c>
+      <c r="AN106" s="30">
+        <v>3181000000</v>
+      </c>
+      <c r="AO106" s="30">
+        <v>3299000000</v>
+      </c>
+      <c r="AP106" s="30">
+        <v>3514000000</v>
+      </c>
+      <c r="AQ106" s="30">
+        <v>4129000000</v>
+      </c>
+      <c r="AR106" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS106" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT106" s="44">
         <f>(SUM(AM4:AQ4)/5)</f>
-        <v>8.9228759751265346E-2</v>
+        <v>7.8075706330123285E-2</v>
       </c>
     </row>
     <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="13"/>
-      <c r="AE107" s="13"/>
-      <c r="AF107" s="13"/>
-      <c r="AG107" s="13"/>
-      <c r="AH107" s="13"/>
-      <c r="AI107" s="13"/>
-      <c r="AJ107" s="13"/>
-      <c r="AK107" s="13"/>
-      <c r="AL107" s="13"/>
-      <c r="AM107" s="40"/>
-      <c r="AN107" s="40"/>
-      <c r="AO107" s="40"/>
-      <c r="AP107" s="40"/>
-      <c r="AQ107" s="43">
+      <c r="A107" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F107" s="1">
+        <v>16600000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>-35400000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>-9500000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>27100000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>5500000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>3300000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>25600000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>179500000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>-32900000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>51500000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>153898000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>245723000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>215389000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>112491000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>294149000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>447060000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>241359000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>526904000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>610852000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>173458000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>417598000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>772015000</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>884021000</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>838615000</v>
+      </c>
+      <c r="AD107" s="1">
+        <v>711384000</v>
+      </c>
+      <c r="AE107" s="1">
+        <v>560115000</v>
+      </c>
+      <c r="AF107" s="1">
+        <v>727955000</v>
+      </c>
+      <c r="AG107" s="1">
+        <v>1041071000</v>
+      </c>
+      <c r="AH107" s="1">
+        <v>1162159000</v>
+      </c>
+      <c r="AI107" s="1">
+        <v>1022134000</v>
+      </c>
+      <c r="AJ107" s="1">
+        <v>1626175000</v>
+      </c>
+      <c r="AK107" s="1">
+        <v>1953398000</v>
+      </c>
+      <c r="AL107" s="1">
+        <v>3005382000</v>
+      </c>
+      <c r="AM107" s="28"/>
+      <c r="AN107" s="28"/>
+      <c r="AO107" s="28"/>
+      <c r="AP107" s="28"/>
+      <c r="AQ107" s="64">
         <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>70751622718.85585</v>
-      </c>
-      <c r="AR107" s="44" t="s">
-        <v>148</v>
+        <v>63267274341.717918</v>
+      </c>
+      <c r="AR107" s="29" t="s">
+        <v>145</v>
       </c>
       <c r="AS107" s="45" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AT107" s="46">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM108" s="43">
-        <f t="shared" ref="AM108:AO108" si="10">AM107+AM106</f>
-        <v>3273548508.4387774</v>
-      </c>
-      <c r="AN108" s="43">
-        <f t="shared" si="10"/>
-        <v>3565643181.8323741</v>
-      </c>
-      <c r="AO108" s="43">
-        <f t="shared" si="10"/>
-        <v>3883801100.6628323</v>
-      </c>
-      <c r="AP108" s="43">
+      <c r="AM108" s="64">
+        <f t="shared" ref="AM108:AO108" si="13">AM107+AM106</f>
+        <v>3412000000</v>
+      </c>
+      <c r="AN108" s="64">
+        <f t="shared" si="13"/>
+        <v>3181000000</v>
+      </c>
+      <c r="AO108" s="64">
+        <f t="shared" si="13"/>
+        <v>3299000000</v>
+      </c>
+      <c r="AP108" s="64">
         <f>AP107+AP106</f>
-        <v>4230347855.9955759</v>
-      </c>
-      <c r="AQ108" s="43">
+        <v>3514000000</v>
+      </c>
+      <c r="AQ108" s="64">
         <f>AQ107+AQ106</f>
-        <v>75359439267.358337</v>
-      </c>
-      <c r="AR108" s="44" t="s">
-        <v>144</v>
+        <v>67396274341.717918</v>
+      </c>
+      <c r="AR108" s="29" t="s">
+        <v>142</v>
       </c>
       <c r="AS108" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="AT108" s="48">
+        <v>147</v>
+      </c>
+      <c r="AT108" s="44">
         <f>AT105</f>
-        <v>9.1754821737202771E-2</v>
+        <v>9.1894378555665165E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM109" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN109" s="61"/>
+      <c r="AM109" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN109" s="66"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM110" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="AN110" s="50">
+      <c r="AM110" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN110" s="39">
         <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>60538254119.748436</v>
+        <v>54223609968.903214</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM111" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="AN111" s="50">
+      <c r="AM111" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN111" s="39">
         <f>AL40</f>
         <v>2708008000</v>
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM112" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN112" s="50">
+      <c r="AM112" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN112" s="39">
         <f>AT99</f>
         <v>6774305000</v>
       </c>
     </row>
     <row r="113" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM113" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="AN113" s="50">
+      <c r="AM113" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN113" s="39">
         <f>AN110+AN111-AN112</f>
-        <v>56471957119.748436</v>
+        <v>50157312968.903214</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM114" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="AN114" s="51">
+      <c r="AM114" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN114" s="48">
         <f>AL34*(1+(5*AR16))</f>
         <v>145814238.03802657</v>
       </c>
     </row>
     <row r="115" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM115" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="AN115" s="53">
+      <c r="AM115" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN115" s="50">
         <f>AN113/AN114</f>
-        <v>387.2869884285322</v>
+        <v>343.98090093110659</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM116" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="AN116" s="58" cm="1">
+      <c r="AM116" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN116" s="51" cm="1">
         <f t="array" ref="AN116">_FV(A1,"Price")</f>
-        <v>467.38</v>
+        <v>466.11</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM117" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="AN117" s="55">
+      <c r="AM117" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN117" s="52">
         <f>AN115/AN116-1</f>
-        <v>-0.17136593686393897</v>
+        <v>-0.26201776204950211</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM118" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN118" s="56" t="str">
+      <c r="AM118" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN118" s="53" t="str">
         <f>IF(AN115&gt;AN116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -16396,8 +17089,9 @@
     <hyperlink ref="C36" r:id="rId74" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="B36" r:id="rId75" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="AM1" r:id="rId76" display="https://finbox.com/NASDAQGS:KLAC/explorer/revenue_proj" xr:uid="{1C1B083B-8C06-A94F-ACCA-E0783EEB84F3}"/>
+    <hyperlink ref="AR106" r:id="rId77" xr:uid="{F6A2942B-EA33-4C45-9824-2E7FEB2B92F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId77"/>
+  <drawing r:id="rId78"/>
 </worksheet>
 </file>
--- a/Technology/Hardware/KLA Corporation.xlsx
+++ b/Technology/Hardware/KLA Corporation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F33603-31EB-F341-8460-2518991968C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05D795B-7EAB-3E4D-8337-D128884BEBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2749,8 +2749,9 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Investable"/>
+      <sheetName val="Top 10"/>
       <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
       <sheetName val="Aggressive Growth"/>
@@ -2761,7 +2762,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>3.857E-2</v>
+            <v>3.9120000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2781,6 +2782,7 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3526,10 +3528,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP24" sqref="AP24"/>
+      <selection pane="bottomRight" activeCell="AL122" sqref="AL122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15167,7 +15169,7 @@
       </c>
       <c r="AT94" s="35">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.857E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15535,7 +15537,7 @@
       </c>
       <c r="AT97" s="34">
         <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>9.924176500000001E-2</v>
+        <v>9.9057240000000005E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16573,7 +16575,7 @@
       </c>
       <c r="AT105" s="42">
         <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>9.1894378555665165E-2</v>
+        <v>9.1727528279104409E-2</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16872,7 +16874,7 @@
       <c r="AP107" s="28"/>
       <c r="AQ107" s="64">
         <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>63267274341.717918</v>
+        <v>63425472352.245239</v>
       </c>
       <c r="AR107" s="29" t="s">
         <v>145</v>
@@ -16903,7 +16905,7 @@
       </c>
       <c r="AQ108" s="64">
         <f>AQ107+AQ106</f>
-        <v>67396274341.717918</v>
+        <v>67554472352.245239</v>
       </c>
       <c r="AR108" s="29" t="s">
         <v>142</v>
@@ -16913,7 +16915,7 @@
       </c>
       <c r="AT108" s="44">
         <f>AT105</f>
-        <v>9.1894378555665165E-2</v>
+        <v>9.1727528279104409E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16928,7 +16930,7 @@
       </c>
       <c r="AN110" s="39">
         <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>54223609968.903214</v>
+        <v>54362776952.951408</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16955,7 +16957,7 @@
       </c>
       <c r="AN113" s="39">
         <f>AN110+AN111-AN112</f>
-        <v>50157312968.903214</v>
+        <v>50296479952.951408</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16973,7 +16975,7 @@
       </c>
       <c r="AN115" s="50">
         <f>AN113/AN114</f>
-        <v>343.98090093110659</v>
+        <v>344.93531379174851</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16991,7 +16993,7 @@
       </c>
       <c r="AN117" s="52">
         <f>AN115/AN116-1</f>
-        <v>-0.26201776204950211</v>
+        <v>-0.25997014912413696</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">
